--- a/Results/table_observations.xlsx
+++ b/Results/table_observations.xlsx
@@ -411,10 +411,10 @@
         </is>
       </c>
       <c r="E2">
-        <v>9490</v>
+        <v>9488</v>
       </c>
       <c r="F2">
-        <v>0.1965047417898704</v>
+        <v>0.1964999482240861</v>
       </c>
     </row>
     <row r="3">
@@ -439,10 +439,10 @@
         </is>
       </c>
       <c r="E3">
-        <v>18741</v>
+        <v>18738</v>
       </c>
       <c r="F3">
-        <v>0.3880606286495217</v>
+        <v>0.3880708294501398</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>10059</v>
       </c>
       <c r="F4">
-        <v>0.2082867436948689</v>
+        <v>0.2083255669462566</v>
       </c>
     </row>
     <row r="5">
@@ -495,10 +495,10 @@
         </is>
       </c>
       <c r="E5">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="F5">
-        <v>0.06555679794591461</v>
+        <v>0.06554830692761728</v>
       </c>
     </row>
     <row r="6">
@@ -526,7 +526,7 @@
         <v>2383</v>
       </c>
       <c r="F6">
-        <v>0.04934360376030149</v>
+        <v>0.04935280107693901</v>
       </c>
     </row>
     <row r="7">
@@ -554,7 +554,7 @@
         <v>522</v>
       </c>
       <c r="F7">
-        <v>0.01080879612374208</v>
+        <v>0.01081081081081081</v>
       </c>
     </row>
     <row r="8">
@@ -579,10 +579,10 @@
         </is>
       </c>
       <c r="E8">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="F8">
-        <v>0.05278088375367541</v>
+        <v>0.05274930102516309</v>
       </c>
     </row>
     <row r="9">
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="E9">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F9">
-        <v>0.02319128670228186</v>
+        <v>0.023174899036968</v>
       </c>
     </row>
     <row r="10">
@@ -638,7 +638,7 @@
         <v>264</v>
       </c>
       <c r="F10">
-        <v>0.00546651757982358</v>
+        <v>0.005467536502019261</v>
       </c>
     </row>
     <row r="11">
@@ -666,7 +666,7 @@
         <v>4501</v>
       </c>
       <c r="F11">
-        <v>0.1088302142269936</v>
+        <v>0.108848637276003</v>
       </c>
     </row>
     <row r="12">
@@ -694,7 +694,7 @@
         <v>14446</v>
       </c>
       <c r="F12">
-        <v>0.3492915518158518</v>
+        <v>0.3493506807574182</v>
       </c>
     </row>
     <row r="13">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="E13">
-        <v>9257</v>
+        <v>9256</v>
       </c>
       <c r="F13">
-        <v>0.2238261037767784</v>
+        <v>0.2238398104036178</v>
       </c>
     </row>
     <row r="14">
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="E14">
-        <v>2330</v>
+        <v>2327</v>
       </c>
       <c r="F14">
-        <v>0.05633734706707288</v>
+        <v>0.05627433435708931</v>
       </c>
     </row>
     <row r="15">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="E15">
-        <v>3930</v>
+        <v>3928</v>
       </c>
       <c r="F15">
-        <v>0.09502393732772378</v>
+        <v>0.09499165679185509</v>
       </c>
     </row>
     <row r="16">
@@ -803,10 +803,10 @@
         </is>
       </c>
       <c r="E16">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F16">
-        <v>0.02570240340441994</v>
+        <v>0.02568257115910135</v>
       </c>
     </row>
     <row r="17">
@@ -834,7 +834,7 @@
         <v>3090</v>
       </c>
       <c r="F17">
-        <v>0.07471347744088205</v>
+        <v>0.07472612512393896</v>
       </c>
     </row>
     <row r="18">
@@ -862,7 +862,7 @@
         <v>2174</v>
       </c>
       <c r="F18">
-        <v>0.05256540451665941</v>
+        <v>0.05257430291891369</v>
       </c>
     </row>
     <row r="19">
@@ -890,7 +890,7 @@
         <v>567</v>
       </c>
       <c r="F19">
-        <v>0.01370956042361816</v>
+        <v>0.01371188121206259</v>
       </c>
     </row>
     <row r="20">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="E20">
-        <v>11434</v>
+        <v>11427</v>
       </c>
       <c r="F20">
-        <v>0.1757130563068601</v>
+        <v>0.1756756756756757</v>
       </c>
     </row>
     <row r="21">
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="E21">
-        <v>30040</v>
+        <v>30031</v>
       </c>
       <c r="F21">
-        <v>0.4616424883206294</v>
+        <v>0.4616886511084463</v>
       </c>
     </row>
     <row r="22">
@@ -974,7 +974,7 @@
         <v>8136</v>
       </c>
       <c r="F22">
-        <v>0.1250307351856405</v>
+        <v>0.1250807121114288</v>
       </c>
     </row>
     <row r="23">
@@ -999,10 +999,10 @@
         </is>
       </c>
       <c r="E23">
-        <v>4668</v>
+        <v>4667</v>
       </c>
       <c r="F23">
-        <v>0.07173592328497665</v>
+        <v>0.07174922362635673</v>
       </c>
     </row>
     <row r="24">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="E24">
-        <v>4299</v>
+        <v>4296</v>
       </c>
       <c r="F24">
-        <v>0.06606528153430047</v>
+        <v>0.06604556775205239</v>
       </c>
     </row>
     <row r="25">
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="E25">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F25">
-        <v>0.0168275141381854</v>
+        <v>0.01681886664821819</v>
       </c>
     </row>
     <row r="26">
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="E26">
-        <v>3692</v>
+        <v>3687</v>
       </c>
       <c r="F26">
-        <v>0.05673715269240226</v>
+        <v>0.05668296282630753</v>
       </c>
     </row>
     <row r="27">
@@ -1114,7 +1114,7 @@
         <v>1486</v>
       </c>
       <c r="F27">
-        <v>0.0228362429309073</v>
+        <v>0.02284537096823786</v>
       </c>
     </row>
     <row r="28">
@@ -1142,7 +1142,7 @@
         <v>222</v>
       </c>
       <c r="F28">
-        <v>0.003411605606097861</v>
+        <v>0.003412969283276451</v>
       </c>
     </row>
     <row r="29">
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="E29">
-        <v>5850</v>
+        <v>5847</v>
       </c>
       <c r="F29">
-        <v>0.1007387508394896</v>
+        <v>0.1007113698606542</v>
       </c>
     </row>
     <row r="30">
@@ -1195,10 +1195,10 @@
         </is>
       </c>
       <c r="E30">
-        <v>22941</v>
+        <v>22934</v>
       </c>
       <c r="F30">
-        <v>0.3950508859843984</v>
+        <v>0.3950255783109702</v>
       </c>
     </row>
     <row r="31">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="E31">
-        <v>9116</v>
+        <v>9115</v>
       </c>
       <c r="F31">
-        <v>0.1569802483167158</v>
+        <v>0.1570008784470434</v>
       </c>
     </row>
     <row r="32">
@@ -1251,10 +1251,10 @@
         </is>
       </c>
       <c r="E32">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="F32">
-        <v>0.06123538427097863</v>
+        <v>0.06123292626212171</v>
       </c>
     </row>
     <row r="33">
@@ -1282,7 +1282,7 @@
         <v>6653</v>
       </c>
       <c r="F33">
-        <v>0.1145666511683973</v>
+        <v>0.1145942780371015</v>
       </c>
     </row>
     <row r="34">
@@ -1310,7 +1310,7 @@
         <v>1940</v>
       </c>
       <c r="F34">
-        <v>0.03340738062027518</v>
+        <v>0.03341543655373168</v>
       </c>
     </row>
     <row r="35">
@@ -1335,10 +1335,10 @@
         </is>
       </c>
       <c r="E35">
-        <v>4317</v>
+        <v>4315</v>
       </c>
       <c r="F35">
-        <v>0.07434003202975668</v>
+        <v>0.07432350965430524</v>
       </c>
     </row>
     <row r="36">
@@ -1366,7 +1366,7 @@
         <v>3059</v>
       </c>
       <c r="F36">
-        <v>0.05267689552444421</v>
+        <v>0.05268959815353876</v>
       </c>
     </row>
     <row r="37">
@@ -1394,7 +1394,7 @@
         <v>639</v>
       </c>
       <c r="F37">
-        <v>0.01100377124554425</v>
+        <v>0.01100642472053327</v>
       </c>
     </row>
   </sheetData>
